--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H2">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I2">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J2">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.071057</v>
+        <v>31.40242733333333</v>
       </c>
       <c r="N2">
-        <v>102.213171</v>
+        <v>94.20728199999999</v>
       </c>
       <c r="O2">
-        <v>0.5537562116045692</v>
+        <v>0.5334014788811394</v>
       </c>
       <c r="P2">
-        <v>0.5537562116045693</v>
+        <v>0.5334014788811395</v>
       </c>
       <c r="Q2">
-        <v>67.72100709249901</v>
+        <v>71.25528973196978</v>
       </c>
       <c r="R2">
-        <v>609.489063832491</v>
+        <v>641.297607587728</v>
       </c>
       <c r="S2">
-        <v>0.01540410343971538</v>
+        <v>0.01542176754272309</v>
       </c>
       <c r="T2">
-        <v>0.01540410343971538</v>
+        <v>0.0154217675427231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H3">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I3">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J3">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>57.869327</v>
       </c>
       <c r="O3">
-        <v>0.3135163401556734</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="P3">
-        <v>0.3135163401556735</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="Q3">
-        <v>38.34113613601856</v>
+        <v>43.77045568493423</v>
       </c>
       <c r="R3">
-        <v>345.070225224167</v>
+        <v>393.934101164408</v>
       </c>
       <c r="S3">
-        <v>0.008721235143900526</v>
+        <v>0.009473230624017252</v>
       </c>
       <c r="T3">
-        <v>0.008721235143900526</v>
+        <v>0.009473230624017252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H4">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I4">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J4">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.7978</v>
+        <v>1.868202333333333</v>
       </c>
       <c r="N4">
-        <v>5.3934</v>
+        <v>5.604607</v>
       </c>
       <c r="O4">
-        <v>0.02921960763420678</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="P4">
-        <v>0.02921960763420679</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="Q4">
-        <v>3.573379791266666</v>
+        <v>4.239140405503111</v>
       </c>
       <c r="R4">
-        <v>32.1604181214</v>
+        <v>38.152263649528</v>
       </c>
       <c r="S4">
-        <v>0.0008128159089376153</v>
+        <v>0.0009174762766462008</v>
       </c>
       <c r="T4">
-        <v>0.0008128159089376155</v>
+        <v>0.0009174762766462008</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.987640333333333</v>
+        <v>2.269101333333333</v>
       </c>
       <c r="H5">
-        <v>5.962921</v>
+        <v>6.807304</v>
       </c>
       <c r="I5">
-        <v>0.02781748198377821</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="J5">
-        <v>0.0278174819837782</v>
+        <v>0.02891211995713196</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.368545333333334</v>
+        <v>6.311623666666667</v>
       </c>
       <c r="N5">
-        <v>19.105636</v>
+        <v>18.934871</v>
       </c>
       <c r="O5">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909023</v>
       </c>
       <c r="P5">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909024</v>
       </c>
       <c r="Q5">
-        <v>12.65837756919511</v>
+        <v>14.32171367753156</v>
       </c>
       <c r="R5">
-        <v>113.925398122756</v>
+        <v>128.895423097784</v>
       </c>
       <c r="S5">
-        <v>0.002879327491224687</v>
+        <v>0.00309964551374541</v>
       </c>
       <c r="T5">
-        <v>0.002879327491224687</v>
+        <v>0.003099645513745411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>170.440021</v>
       </c>
       <c r="I6">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J6">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.071057</v>
+        <v>31.40242733333333</v>
       </c>
       <c r="N6">
-        <v>102.213171</v>
+        <v>94.20728199999999</v>
       </c>
       <c r="O6">
-        <v>0.5537562116045692</v>
+        <v>0.5334014788811394</v>
       </c>
       <c r="P6">
-        <v>0.5537562116045693</v>
+        <v>0.5334014788811395</v>
       </c>
       <c r="Q6">
-        <v>1935.690556857399</v>
+        <v>1784.076791381436</v>
       </c>
       <c r="R6">
-        <v>17421.21501171659</v>
+        <v>16056.69112243292</v>
       </c>
       <c r="S6">
-        <v>0.4403002678974384</v>
+        <v>0.3861273690493097</v>
       </c>
       <c r="T6">
-        <v>0.4403002678974384</v>
+        <v>0.3861273690493098</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>170.440021</v>
       </c>
       <c r="I7">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J7">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>57.869327</v>
       </c>
       <c r="O7">
-        <v>0.3135163401556734</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="P7">
-        <v>0.3135163401556735</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="Q7">
         <v>1095.916589903985</v>
@@ -883,10 +883,10 @@
         <v>9863.249309135866</v>
       </c>
       <c r="S7">
-        <v>0.249281769970178</v>
+        <v>0.2371889997119775</v>
       </c>
       <c r="T7">
-        <v>0.249281769970178</v>
+        <v>0.2371889997119775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>170.440021</v>
       </c>
       <c r="I8">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J8">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.7978</v>
+        <v>1.868202333333333</v>
       </c>
       <c r="N8">
-        <v>5.3934</v>
+        <v>5.604607</v>
       </c>
       <c r="O8">
-        <v>0.02921960763420678</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="P8">
-        <v>0.02921960763420679</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="Q8">
-        <v>102.1390232512667</v>
+        <v>106.1388149751941</v>
       </c>
       <c r="R8">
-        <v>919.2512092613999</v>
+        <v>955.249334776747</v>
       </c>
       <c r="S8">
-        <v>0.02323296930958188</v>
+        <v>0.02297160165883297</v>
       </c>
       <c r="T8">
-        <v>0.02323296930958188</v>
+        <v>0.02297160165883297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>170.440021</v>
       </c>
       <c r="I9">
-        <v>0.7951157181995669</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="J9">
-        <v>0.7951157181995667</v>
+        <v>0.7238963226334669</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.368545333333334</v>
+        <v>6.311623666666667</v>
       </c>
       <c r="N9">
-        <v>19.105636</v>
+        <v>18.934871</v>
       </c>
       <c r="O9">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909023</v>
       </c>
       <c r="P9">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909024</v>
       </c>
       <c r="Q9">
-        <v>361.8183334509285</v>
+        <v>358.5844234302546</v>
       </c>
       <c r="R9">
-        <v>3256.365001058356</v>
+        <v>3227.259810872291</v>
       </c>
       <c r="S9">
-        <v>0.08230071102236858</v>
+        <v>0.07760835221334665</v>
       </c>
       <c r="T9">
-        <v>0.08230071102236858</v>
+        <v>0.07760835221334667</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H10">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I10">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J10">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.071057</v>
+        <v>31.40242733333333</v>
       </c>
       <c r="N10">
-        <v>102.213171</v>
+        <v>94.20728199999999</v>
       </c>
       <c r="O10">
-        <v>0.5537562116045692</v>
+        <v>0.5334014788811394</v>
       </c>
       <c r="P10">
-        <v>0.5537562116045693</v>
+        <v>0.5334014788811395</v>
       </c>
       <c r="Q10">
-        <v>405.507598980759</v>
+        <v>583.2238321556255</v>
       </c>
       <c r="R10">
-        <v>3649.568390826831</v>
+        <v>5249.01448940063</v>
       </c>
       <c r="S10">
-        <v>0.09223845404068295</v>
+        <v>0.1262270127412696</v>
       </c>
       <c r="T10">
-        <v>0.09223845404068295</v>
+        <v>0.1262270127412696</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H11">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I11">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J11">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>57.869327</v>
       </c>
       <c r="O11">
-        <v>0.3135163401556734</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="P11">
-        <v>0.3135163401556735</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="Q11">
-        <v>229.5834442549719</v>
+        <v>358.2607410030894</v>
       </c>
       <c r="R11">
-        <v>2066.250998294747</v>
+        <v>3224.346669027805</v>
       </c>
       <c r="S11">
-        <v>0.05222201020311515</v>
+        <v>0.07753829769292885</v>
       </c>
       <c r="T11">
-        <v>0.05222201020311515</v>
+        <v>0.07753829769292886</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H12">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I12">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J12">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.7978</v>
+        <v>1.868202333333333</v>
       </c>
       <c r="N12">
-        <v>5.3934</v>
+        <v>5.604607</v>
       </c>
       <c r="O12">
-        <v>0.02921960763420678</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="P12">
-        <v>0.02921960763420679</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="Q12">
-        <v>21.39709259526666</v>
+        <v>34.69732172366722</v>
       </c>
       <c r="R12">
-        <v>192.5738333574</v>
+        <v>312.275895513005</v>
       </c>
       <c r="S12">
-        <v>0.004867072150838754</v>
+        <v>0.007509534127083816</v>
       </c>
       <c r="T12">
-        <v>0.004867072150838755</v>
+        <v>0.007509534127083817</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.90182033333333</v>
+        <v>18.57257166666666</v>
       </c>
       <c r="H13">
-        <v>35.705461</v>
+        <v>55.717715</v>
       </c>
       <c r="I13">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="J13">
-        <v>0.166568703172488</v>
+        <v>0.2366454120188096</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.368545333333334</v>
+        <v>6.311623666666667</v>
       </c>
       <c r="N13">
-        <v>19.105636</v>
+        <v>18.934871</v>
       </c>
       <c r="O13">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909023</v>
       </c>
       <c r="P13">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909024</v>
       </c>
       <c r="Q13">
-        <v>75.79728234202177</v>
+        <v>117.2230828821961</v>
       </c>
       <c r="R13">
-        <v>682.175541078196</v>
+        <v>1055.007745939765</v>
       </c>
       <c r="S13">
-        <v>0.01724116677785114</v>
+        <v>0.02537056745752729</v>
       </c>
       <c r="T13">
-        <v>0.01724116677785114</v>
+        <v>0.02537056745752729</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H14">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I14">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J14">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.071057</v>
+        <v>31.40242733333333</v>
       </c>
       <c r="N14">
-        <v>102.213171</v>
+        <v>94.20728199999999</v>
       </c>
       <c r="O14">
-        <v>0.5537562116045692</v>
+        <v>0.5334014788811394</v>
       </c>
       <c r="P14">
-        <v>0.5537562116045693</v>
+        <v>0.5334014788811395</v>
       </c>
       <c r="Q14">
-        <v>25.557369919821</v>
+        <v>25.99147507952666</v>
       </c>
       <c r="R14">
-        <v>230.016329278389</v>
+        <v>233.9232757157399</v>
       </c>
       <c r="S14">
-        <v>0.005813386226732579</v>
+        <v>0.005625329547837061</v>
       </c>
       <c r="T14">
-        <v>0.005813386226732579</v>
+        <v>0.005625329547837062</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H15">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I15">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J15">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>57.869327</v>
       </c>
       <c r="O15">
-        <v>0.3135163401556734</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="P15">
-        <v>0.3135163401556735</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="Q15">
-        <v>14.46964009315478</v>
+        <v>15.96595442154333</v>
       </c>
       <c r="R15">
-        <v>130.226760838393</v>
+        <v>143.69358979389</v>
       </c>
       <c r="S15">
-        <v>0.003291324838479806</v>
+        <v>0.003455508196134404</v>
       </c>
       <c r="T15">
-        <v>0.003291324838479806</v>
+        <v>0.003455508196134404</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H16">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I16">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J16">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.7978</v>
+        <v>1.868202333333333</v>
       </c>
       <c r="N16">
-        <v>5.3934</v>
+        <v>5.604607</v>
       </c>
       <c r="O16">
-        <v>0.02921960763420678</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="P16">
-        <v>0.02921960763420679</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="Q16">
-        <v>1.348565136733333</v>
+        <v>1.546292389276666</v>
       </c>
       <c r="R16">
-        <v>12.1370862306</v>
+        <v>13.91663150349</v>
       </c>
       <c r="S16">
-        <v>0.0003067502648485437</v>
+        <v>0.0003346637403371263</v>
       </c>
       <c r="T16">
-        <v>0.0003067502648485438</v>
+        <v>0.0003346637403371263</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7501196666666666</v>
+        <v>0.8276899999999999</v>
       </c>
       <c r="H17">
-        <v>2.250359</v>
+        <v>2.48307</v>
       </c>
       <c r="I17">
-        <v>0.01049809664416704</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="J17">
-        <v>0.01049809664416703</v>
+        <v>0.01054614539059158</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.368545333333334</v>
+        <v>6.311623666666667</v>
       </c>
       <c r="N17">
-        <v>19.105636</v>
+        <v>18.934871</v>
       </c>
       <c r="O17">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909023</v>
       </c>
       <c r="P17">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909024</v>
       </c>
       <c r="Q17">
-        <v>4.777171102591556</v>
+        <v>5.224067792663333</v>
       </c>
       <c r="R17">
-        <v>42.994539923324</v>
+        <v>47.01661013397</v>
       </c>
       <c r="S17">
-        <v>0.001086635314106106</v>
+        <v>0.001130643906282989</v>
       </c>
       <c r="T17">
-        <v>0.001086635314106106</v>
+        <v>0.001130643906282989</v>
       </c>
     </row>
   </sheetData>
